--- a/amazon-gift-card-raffle/Amazon Gift Card Raffle.xlsx
+++ b/amazon-gift-card-raffle/Amazon Gift Card Raffle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Drawing" sheetId="4" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="Pilot" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Amazon Gift Card Raffle'!$A$1:$D$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Drawing!$B$1:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Amazon Gift Card Raffle'!$B$1:$F$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Drawing!$B$1:$F$58</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="131">
   <si>
     <t>Timestamp</t>
   </si>
@@ -426,63 +426,6 @@
   </si>
   <si>
     <t>Email Address</t>
-  </si>
-  <si>
-    <t>Roughly how often do you interact with your smartphone?</t>
-  </si>
-  <si>
-    <t>Do you have more than one cell phone? Work/Personal</t>
-  </si>
-  <si>
-    <t>How old are you?</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>What operating system does your personal phone use?</t>
-  </si>
-  <si>
-    <t>About once an hour</t>
-  </si>
-  <si>
-    <t>One phone - used both for work and personal</t>
-  </si>
-  <si>
-    <t>55-64</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>iPhone - iOS 10.X</t>
-  </si>
-  <si>
-    <t>Multiple times per hour</t>
-  </si>
-  <si>
-    <t>25-34</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Dbakevlar@gmail.com</t>
-  </si>
-  <si>
-    <t>45-54</t>
-  </si>
-  <si>
-    <t>One phone - personal use only</t>
-  </si>
-  <si>
-    <t>18-24</t>
-  </si>
-  <si>
-    <t>Android - 6.X (Marshmallow)</t>
-  </si>
-  <si>
-    <t>Android - 7.X (Nougat)</t>
   </si>
 </sst>
 </file>
@@ -524,24 +467,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -814,18 +749,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B1" t="s">
@@ -845,7 +782,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -858,16 +795,14 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C2)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>IF(AND(E2=0, D2=13),1, IF(AND(E2=0, D2&gt;=14),2,IF(AND(E2=1, 19&lt;=D2&lt;21),1,IF(AND(E2=1, D2&gt;=21),2,0))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -880,1072 +815,1114 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C3)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>IF(AND(E3=0, D3=13),1, IF(AND(E3=0, D3&gt;=14),2,IF(AND(E3=1, 19&lt;=D3&lt;21),1,IF(AND(E3=1, D3&gt;=21),2,0))))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" s="2">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <f>IF(AND(E4=0, D4=13),1, IF(AND(E4=0, D4&gt;=14),2,IF(AND(E4=1, 19&lt;=D4&lt;21),1,IF(AND(E4=1, D4&gt;=21),2,0))))</f>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>13</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C5)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>IF(AND(E5=0, D5=13),1, IF(AND(E5=0, D5&gt;=14),2,IF(AND(E5=1, 19&lt;=D5&lt;21),1,IF(AND(E5=1, D5&gt;=21),2,0))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>13</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C6)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>IF(AND(E6=0, D6=13),1, IF(AND(E6=0, D6&gt;=14),2,IF(AND(E6=1, 19&lt;=D6&lt;21),1,IF(AND(E6=1, D6&gt;=21),2,0))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C7)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>IF(AND(E7=0, D7=13),1, IF(AND(E7=0, D7&gt;=14),2,IF(AND(E7=1, 19&lt;=D7&lt;21),1,IF(AND(E7=1, D7&gt;=21),2,0))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>84</v>
       </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C8)</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>IF(AND(E8=0, D8=13),1, IF(AND(E8=0, D8&gt;=14),2,IF(AND(E8=1, 19&lt;=D8&lt;21),1,IF(AND(E8=1, D8&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>98</v>
       </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C9)</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>IF(AND(E9=0, D9=13),1, IF(AND(E9=0, D9&gt;=14),2,IF(AND(E9=1, 19&lt;=D9&lt;21),1,IF(AND(E9=1, D9&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <f>IF(AND(E10=0, D10=13),1, IF(AND(E10=0, D10&gt;=14),2,IF(AND(E10=1, 19&lt;=D10&lt;21),1,IF(AND(E10=1, D10&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>IF(AND(E11=0, D11=13),1, IF(AND(E11=0, D11&gt;=14),2,IF(AND(E11=1, 19&lt;=D11&lt;21),1,IF(AND(E11=1, D11&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>IF(AND(E12=0, D12=13),1, IF(AND(E12=0, D12&gt;=14),2,IF(AND(E12=1, 19&lt;=D12&lt;21),1,IF(AND(E12=1, D12&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C13)</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>IF(AND(E13=0, D13=13),1, IF(AND(E13=0, D13&gt;=14),2,IF(AND(E13=1, 19&lt;=D13&lt;21),1,IF(AND(E13=1, D13&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D14" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C14)</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>IF(AND(E14=0, D14=13),1, IF(AND(E14=0, D14&gt;=14),2,IF(AND(E14=1, 19&lt;=D14&lt;21),1,IF(AND(E14=1, D14&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>IF(AND(E15=0, D15=13),1, IF(AND(E15=0, D15&gt;=14),2,IF(AND(E15=1, 19&lt;=D15&lt;21),1,IF(AND(E15=1, D15&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C16)</f>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>IF(AND(E16=0, D16=13),1, IF(AND(E16=0, D16&gt;=14),2,IF(AND(E16=1, 19&lt;=D16&lt;21),1,IF(AND(E16=1, D16&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C17)</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f>IF(AND(E17=0, D17=13),1, IF(AND(E17=0, D17&gt;=14),2,IF(AND(E17=1, 19&lt;=D17&lt;21),1,IF(AND(E17=1, D17&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>76</v>
       </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C18)</f>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f>IF(AND(E18=0, D18=13),1, IF(AND(E18=0, D18&gt;=14),2,IF(AND(E18=1, 19&lt;=D18&lt;21),1,IF(AND(E18=1, D18&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>89</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C19)</f>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f>IF(AND(E19=0, D19=13),1, IF(AND(E19=0, D19&gt;=14),2,IF(AND(E19=1, 19&lt;=D19&lt;21),1,IF(AND(E19=1, D19&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C20)</f>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f>IF(AND(E20=0, D20=13),1, IF(AND(E20=0, D20&gt;=14),2,IF(AND(E20=1, 19&lt;=D20&lt;21),1,IF(AND(E20=1, D20&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D22" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C21)</f>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f>IF(AND(E21=0, D21=13),1, IF(AND(E21=0, D21&gt;=14),2,IF(AND(E21=1, 19&lt;=D21&lt;21),1,IF(AND(E21=1, D21&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>101</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>102</v>
       </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C22)</f>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f>IF(AND(E22=0, D22=13),1, IF(AND(E22=0, D22&gt;=14),2,IF(AND(E22=1, 19&lt;=D22&lt;21),1,IF(AND(E22=1, D22&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C23)</f>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f>IF(AND(E23=0, D23=13),1, IF(AND(E23=0, D23&gt;=14),2,IF(AND(E23=1, 19&lt;=D23&lt;21),1,IF(AND(E23=1, D23&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
       <c r="D24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C24)</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>IF(AND(E24=0, D24=13),1, IF(AND(E24=0, D24&gt;=14),2,IF(AND(E24=1, 19&lt;=D24&lt;21),1,IF(AND(E24=1, D24&gt;=21),2,0))))</f>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>15</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C25)</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>IF(AND(E25=0, D25=13),1, IF(AND(E25=0, D25&gt;=14),2,IF(AND(E25=1, 19&lt;=D25&lt;21),1,IF(AND(E25=1, D25&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D30">
         <v>17</v>
       </c>
-      <c r="E26" s="2">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C26)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <f>IF(AND(E26=0, D26=13),1, IF(AND(E26=0, D26&gt;=14),2,IF(AND(E26=1, 19&lt;=D26&lt;21),1,IF(AND(E26=1, D26&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>5</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C56" t="s">
         <v>6</v>
       </c>
-      <c r="D27">
+      <c r="D56">
         <v>21</v>
       </c>
-      <c r="E27">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C27)</f>
+      <c r="E56">
         <v>1</v>
       </c>
-      <c r="F27">
-        <f>IF(AND(E27=0, D27=13),1, IF(AND(E27=0, D27&gt;=14),2,IF(AND(E27=1, 19&lt;=D27&lt;21),1,IF(AND(E27=1, D27&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C57" t="s">
         <v>4</v>
       </c>
-      <c r="D28">
+      <c r="D57">
         <v>21</v>
       </c>
-      <c r="E28">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C28)</f>
+      <c r="E57">
         <v>1</v>
       </c>
-      <c r="F28">
-        <f>IF(AND(E28=0, D28=13),1, IF(AND(E28=0, D28&gt;=14),2,IF(AND(E28=1, 19&lt;=D28&lt;21),1,IF(AND(E28=1, D28&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C58" t="s">
         <v>70</v>
       </c>
-      <c r="D29">
+      <c r="D58">
         <v>24</v>
       </c>
-      <c r="E29">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C29)</f>
+      <c r="E58">
         <v>1</v>
       </c>
-      <c r="F29">
-        <f>IF(AND(E29=0, D29=13),1, IF(AND(E29=0, D29&gt;=14),2,IF(AND(E29=1, 19&lt;=D29&lt;21),1,IF(AND(E29=1, D29&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30">
-        <v>14</v>
-      </c>
-      <c r="E30">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C30)</f>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f>IF(AND(E30=0, D30=13),1, IF(AND(E30=0, D30&gt;=14),2,IF(AND(E30=1, 19&lt;=D30&lt;21),1,IF(AND(E30=1, D30&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31">
-        <v>14</v>
-      </c>
-      <c r="E31">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C31)</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f>IF(AND(E31=0, D31=13),1, IF(AND(E31=0, D31&gt;=14),2,IF(AND(E31=1, 19&lt;=D31&lt;21),1,IF(AND(E31=1, D31&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32">
-        <v>14</v>
-      </c>
-      <c r="E32">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C32)</f>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f>IF(AND(E32=0, D32=13),1, IF(AND(E32=0, D32&gt;=14),2,IF(AND(E32=1, 19&lt;=D32&lt;21),1,IF(AND(E32=1, D32&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>14</v>
-      </c>
-      <c r="E33">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C33)</f>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f>IF(AND(E33=0, D33=13),1, IF(AND(E33=0, D33&gt;=14),2,IF(AND(E33=1, 19&lt;=D33&lt;21),1,IF(AND(E33=1, D33&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34">
-        <v>14</v>
-      </c>
-      <c r="E34">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C34)</f>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f>IF(AND(E34=0, D34=13),1, IF(AND(E34=0, D34&gt;=14),2,IF(AND(E34=1, 19&lt;=D34&lt;21),1,IF(AND(E34=1, D34&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35">
-        <v>14</v>
-      </c>
-      <c r="E35">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C35)</f>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f>IF(AND(E35=0, D35=13),1, IF(AND(E35=0, D35&gt;=14),2,IF(AND(E35=1, 19&lt;=D35&lt;21),1,IF(AND(E35=1, D35&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36">
-        <v>14</v>
-      </c>
-      <c r="E36">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C36)</f>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f>IF(AND(E36=0, D36=13),1, IF(AND(E36=0, D36&gt;=14),2,IF(AND(E36=1, 19&lt;=D36&lt;21),1,IF(AND(E36=1, D36&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37">
-        <v>14</v>
-      </c>
-      <c r="E37">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C37)</f>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f>IF(AND(E37=0, D37=13),1, IF(AND(E37=0, D37&gt;=14),2,IF(AND(E37=1, 19&lt;=D37&lt;21),1,IF(AND(E37=1, D37&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="2">
-        <v>14</v>
-      </c>
-      <c r="E38" s="2">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C38)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <f>IF(AND(E38=0, D38=13),1, IF(AND(E38=0, D38&gt;=14),2,IF(AND(E38=1, 19&lt;=D38&lt;21),1,IF(AND(E38=1, D38&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39">
-        <v>14</v>
-      </c>
-      <c r="E39">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C39)</f>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f>IF(AND(E39=0, D39=13),1, IF(AND(E39=0, D39&gt;=14),2,IF(AND(E39=1, 19&lt;=D39&lt;21),1,IF(AND(E39=1, D39&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40">
-        <v>14</v>
-      </c>
-      <c r="E40">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C40)</f>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f>IF(AND(E40=0, D40=13),1, IF(AND(E40=0, D40&gt;=14),2,IF(AND(E40=1, 19&lt;=D40&lt;21),1,IF(AND(E40=1, D40&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="2">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C41)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <f>IF(AND(E41=0, D41=13),1, IF(AND(E41=0, D41&gt;=14),2,IF(AND(E41=1, 19&lt;=D41&lt;21),1,IF(AND(E41=1, D41&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42">
-        <v>14</v>
-      </c>
-      <c r="E42">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C42)</f>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f>IF(AND(E42=0, D42=13),1, IF(AND(E42=0, D42&gt;=14),2,IF(AND(E42=1, 19&lt;=D42&lt;21),1,IF(AND(E42=1, D42&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43">
-        <v>14</v>
-      </c>
-      <c r="E43">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C43)</f>
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <f>IF(AND(E43=0, D43=13),1, IF(AND(E43=0, D43&gt;=14),2,IF(AND(E43=1, 19&lt;=D43&lt;21),1,IF(AND(E43=1, D43&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44">
-        <v>14</v>
-      </c>
-      <c r="E44">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C44)</f>
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f>IF(AND(E44=0, D44=13),1, IF(AND(E44=0, D44&gt;=14),2,IF(AND(E44=1, 19&lt;=D44&lt;21),1,IF(AND(E44=1, D44&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45">
-        <v>15</v>
-      </c>
-      <c r="E45">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C45)</f>
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f>IF(AND(E45=0, D45=13),1, IF(AND(E45=0, D45&gt;=14),2,IF(AND(E45=1, 19&lt;=D45&lt;21),1,IF(AND(E45=1, D45&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46">
-        <v>15</v>
-      </c>
-      <c r="E46">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C46)</f>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f>IF(AND(E46=0, D46=13),1, IF(AND(E46=0, D46&gt;=14),2,IF(AND(E46=1, 19&lt;=D46&lt;21),1,IF(AND(E46=1, D46&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47">
-        <v>15</v>
-      </c>
-      <c r="E47">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C47)</f>
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <f>IF(AND(E47=0, D47=13),1, IF(AND(E47=0, D47&gt;=14),2,IF(AND(E47=1, 19&lt;=D47&lt;21),1,IF(AND(E47=1, D47&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48">
-        <v>17</v>
-      </c>
-      <c r="E48">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C48)</f>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f>IF(AND(E48=0, D48=13),1, IF(AND(E48=0, D48&gt;=14),2,IF(AND(E48=1, 19&lt;=D48&lt;21),1,IF(AND(E48=1, D48&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49">
-        <v>21</v>
-      </c>
-      <c r="E49">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C49)</f>
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <f>IF(AND(E49=0, D49=13),1, IF(AND(E49=0, D49&gt;=14),2,IF(AND(E49=1, 19&lt;=D49&lt;21),1,IF(AND(E49=1, D49&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>21</v>
-      </c>
-      <c r="E50">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C50)</f>
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <f>IF(AND(E50=0, D50=13),1, IF(AND(E50=0, D50&gt;=14),2,IF(AND(E50=1, 19&lt;=D50&lt;21),1,IF(AND(E50=1, D50&gt;=21),2,0))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51">
-        <v>24</v>
-      </c>
-      <c r="E51">
-        <f>COUNTIF(Pilot!$C$2:$C$13,Drawing!C51)</f>
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <f>IF(AND(E51=0, D51=13),1, IF(AND(E51=0, D51&gt;=14),2,IF(AND(E51=1, 19&lt;=D51&lt;21),1,IF(AND(E51=1, D51&gt;=21),2,0))))</f>
+      <c r="F58">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F51"/>
+  <autoFilter ref="B1:F58"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1990,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C2)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C2)</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -2009,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C3)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C3)</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -2028,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C4)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C4)</f>
         <v>0</v>
       </c>
       <c r="F4">
@@ -2047,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C5)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C5)</f>
         <v>0</v>
       </c>
       <c r="F5">
@@ -2066,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C6)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C6)</f>
         <v>0</v>
       </c>
       <c r="F6">
@@ -2085,7 +2062,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C7)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C7)</f>
         <v>0</v>
       </c>
       <c r="F7">
@@ -2104,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C8)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C8)</f>
         <v>0</v>
       </c>
       <c r="F8">
@@ -2123,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C9)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C9)</f>
         <v>0</v>
       </c>
       <c r="F9">
@@ -2142,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C10)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C10)</f>
         <v>0</v>
       </c>
       <c r="F10">
@@ -2161,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C11)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C11)</f>
         <v>0</v>
       </c>
       <c r="F11">
@@ -2180,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C12)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C12)</f>
         <v>0</v>
       </c>
       <c r="F12">
@@ -2199,7 +2176,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C13)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C13)</f>
         <v>0</v>
       </c>
       <c r="F13">
@@ -2218,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C14)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C14)</f>
         <v>0</v>
       </c>
       <c r="F14">
@@ -2237,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C15)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C15)</f>
         <v>0</v>
       </c>
       <c r="F15">
@@ -2256,7 +2233,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C16)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C16)</f>
         <v>0</v>
       </c>
       <c r="F16">
@@ -2275,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C17)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C17)</f>
         <v>0</v>
       </c>
       <c r="F17">
@@ -2294,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C18)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C18)</f>
         <v>0</v>
       </c>
       <c r="F18">
@@ -2313,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C19)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C19)</f>
         <v>0</v>
       </c>
       <c r="F19">
@@ -2332,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C20)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C20)</f>
         <v>0</v>
       </c>
       <c r="F20">
@@ -2351,8 +2328,8 @@
         <v>11</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C21)</f>
-        <v>1</v>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C21)</f>
+        <v>0</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -2370,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C22)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C22)</f>
         <v>0</v>
       </c>
       <c r="F22">
@@ -2389,7 +2366,7 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C23)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C23)</f>
         <v>0</v>
       </c>
       <c r="F23">
@@ -2408,7 +2385,7 @@
         <v>12</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C24)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C24)</f>
         <v>0</v>
       </c>
       <c r="F24">
@@ -2427,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C25)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C25)</f>
         <v>0</v>
       </c>
       <c r="F25">
@@ -2446,8 +2423,8 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C26)</f>
-        <v>1</v>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C26)</f>
+        <v>0</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -2465,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C27)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C27)</f>
         <v>0</v>
       </c>
       <c r="F27">
@@ -2484,7 +2461,7 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C28)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C28)</f>
         <v>0</v>
       </c>
       <c r="F28">
@@ -2503,7 +2480,7 @@
         <v>13</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C29)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C29)</f>
         <v>0</v>
       </c>
       <c r="F29">
@@ -2522,7 +2499,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C30)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C30)</f>
         <v>0</v>
       </c>
       <c r="F30">
@@ -2541,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C31)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C31)</f>
         <v>0</v>
       </c>
       <c r="F31">
@@ -2560,12 +2537,12 @@
         <v>13</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C32)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C32)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -2579,7 +2556,7 @@
         <v>13</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C33)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C33)</f>
         <v>0</v>
       </c>
       <c r="F33">
@@ -2598,7 +2575,7 @@
         <v>13</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C34)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C34)</f>
         <v>0</v>
       </c>
       <c r="F34">
@@ -2617,7 +2594,7 @@
         <v>13</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C35)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C35)</f>
         <v>0</v>
       </c>
       <c r="F35">
@@ -2636,7 +2613,7 @@
         <v>14</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C36)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C36)</f>
         <v>0</v>
       </c>
       <c r="F36">
@@ -2655,7 +2632,7 @@
         <v>14</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C37)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C37)</f>
         <v>0</v>
       </c>
       <c r="F37">
@@ -2674,7 +2651,7 @@
         <v>14</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C38)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C38)</f>
         <v>0</v>
       </c>
       <c r="F38">
@@ -2693,7 +2670,7 @@
         <v>14</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C39)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C39)</f>
         <v>0</v>
       </c>
       <c r="F39">
@@ -2712,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C40)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C40)</f>
         <v>0</v>
       </c>
       <c r="F40">
@@ -2731,7 +2708,7 @@
         <v>14</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C41)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C41)</f>
         <v>0</v>
       </c>
       <c r="F41">
@@ -2750,12 +2727,12 @@
         <v>14</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C42)</f>
-        <v>1</v>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C42)</f>
+        <v>0</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -2769,7 +2746,7 @@
         <v>14</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C43)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C43)</f>
         <v>0</v>
       </c>
       <c r="F43">
@@ -2788,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C44)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C44)</f>
         <v>0</v>
       </c>
       <c r="F44">
@@ -2807,7 +2784,7 @@
         <v>14</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C45)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C45)</f>
         <v>0</v>
       </c>
       <c r="F45">
@@ -2826,7 +2803,7 @@
         <v>14</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C46)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C46)</f>
         <v>0</v>
       </c>
       <c r="F46">
@@ -2845,7 +2822,7 @@
         <v>14</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C47)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C47)</f>
         <v>0</v>
       </c>
       <c r="F47">
@@ -2864,7 +2841,7 @@
         <v>14</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C48)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C48)</f>
         <v>0</v>
       </c>
       <c r="F48">
@@ -2883,7 +2860,7 @@
         <v>14</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C49)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C49)</f>
         <v>0</v>
       </c>
       <c r="F49">
@@ -2902,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C50)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C50)</f>
         <v>0</v>
       </c>
       <c r="F50">
@@ -2921,7 +2898,7 @@
         <v>14</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C51)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C51)</f>
         <v>0</v>
       </c>
       <c r="F51">
@@ -2940,12 +2917,12 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C52)</f>
-        <v>1</v>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C52)</f>
+        <v>0</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -2959,7 +2936,7 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C53)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C53)</f>
         <v>0</v>
       </c>
       <c r="F53">
@@ -2978,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C54)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C54)</f>
         <v>0</v>
       </c>
       <c r="F54">
@@ -2997,12 +2974,12 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C55)</f>
-        <v>1</v>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C55)</f>
+        <v>0</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -3016,7 +2993,7 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C56)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C56)</f>
         <v>0</v>
       </c>
       <c r="F56">
@@ -3035,7 +3012,7 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C57)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C57)</f>
         <v>0</v>
       </c>
       <c r="F57">
@@ -3054,7 +3031,7 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C58)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C58)</f>
         <v>1</v>
       </c>
       <c r="F58">
@@ -3073,7 +3050,7 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C59)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C59)</f>
         <v>1</v>
       </c>
       <c r="F59">
@@ -3092,7 +3069,7 @@
         <v>20</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C60)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C60)</f>
         <v>1</v>
       </c>
       <c r="F60">
@@ -3111,7 +3088,7 @@
         <v>21</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C61)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C61)</f>
         <v>1</v>
       </c>
       <c r="F61">
@@ -3130,7 +3107,7 @@
         <v>21</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C62)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C62)</f>
         <v>1</v>
       </c>
       <c r="F62">
@@ -3149,7 +3126,7 @@
         <v>24</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(Pilot!$C$2:$C$13,'Amazon Gift Card Raffle'!C63)</f>
+        <f>COUNTIF(Pilot!$A$2:$A$7,'Amazon Gift Card Raffle'!C63)</f>
         <v>1</v>
       </c>
       <c r="F63">
@@ -3158,11 +3135,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D63">
-    <sortState ref="A2:D63">
-      <sortCondition ref="D2:D63"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B1:F63"/>
   <sortState ref="A2:F63">
     <sortCondition ref="D2:D64"/>
   </sortState>
@@ -3172,359 +3145,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42798.598611111112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42798.693749999999</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42798.762499999997</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42799.373611111114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42799.757638888892</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>42799.775694444441</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>42800.615972222222</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42801.28125</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42801.773611111108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>42802.486111111109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>42802.559027777781</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>42805.588194444441</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" t="s">
-        <v>149</v>
-      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
